--- a/analysis/25-10-2018 - tmp - table4michal.xlsx
+++ b/analysis/25-10-2018 - tmp - table4michal.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I17" sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -401,9 +401,9 @@
     <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.69921875" bestFit="1" customWidth="1"/>
